--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nidhi\eclipse-workspace\7rmartFinalProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F472B8-46C2-4FF2-A8A1-D13867630B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E75144-73B5-4040-BC4C-3BCF70CD95F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test user</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Today's climate Update Based on region</t>
+  </si>
+  <si>
+    <t>New Category Sale</t>
+  </si>
+  <si>
+    <t>Revathi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,13 +383,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -366,18 +405,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -385,7 +424,30 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nidhi\eclipse-workspace\7rmartFinalProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E75144-73B5-4040-BC4C-3BCF70CD95F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D004E7D-CCD2-4777-B279-CAC109E22227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="Category" sheetId="2" r:id="rId2"/>
+    <sheet name="News" sheetId="3" r:id="rId3"/>
+    <sheet name="AdminUser" sheetId="4" r:id="rId4"/>
+    <sheet name="ManageCategory" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>admin</t>
   </si>
@@ -36,19 +40,43 @@
     <t>test user</t>
   </si>
   <si>
-    <t>Test123</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Today's climate Update Based on region</t>
-  </si>
-  <si>
-    <t>New Category Sale</t>
-  </si>
-  <si>
-    <t>Revathi</t>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>New images</t>
+  </si>
+  <si>
+    <t>New image founded</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Usertype</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Devu</t>
+  </si>
+  <si>
+    <t>Images</t>
   </si>
 </sst>
 </file>
@@ -383,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,57 +425,167 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8C4452-0963-486B-89E3-194685AD85B4}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D565FA4-161C-429A-993F-F0A903513AE0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5E088-8E00-455B-958B-1A18F6D8C9BD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E324127-FE72-4327-8375-F287799076B5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
